--- a/src/main/java/Table/For_friend.xlsx
+++ b/src/main/java/Table/For_friend.xlsx
@@ -3,15 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53DC496-F700-4C34-A030-8A572B9CD878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0952358-C9DC-4639-A8F4-4850115D6315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16320" yWindow="3135" windowWidth="12480" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="1">
+  <si>
+    <t>dfgh</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,8 +1722,8 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>54</v>
+      <c r="A121" t="s">
+        <v>0</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -1725,8 +1733,8 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>54</v>
+      <c r="A122" t="s">
+        <v>0</v>
       </c>
       <c r="B122">
         <v>10</v>
@@ -1736,8 +1744,8 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>54</v>
+      <c r="A123" t="s">
+        <v>0</v>
       </c>
       <c r="B123">
         <v>15</v>
@@ -1747,8 +1755,8 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>54</v>
+      <c r="A124" t="s">
+        <v>0</v>
       </c>
       <c r="B124">
         <v>20</v>
@@ -1758,8 +1766,8 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>54</v>
+      <c r="A125" t="s">
+        <v>0</v>
       </c>
       <c r="B125">
         <v>25</v>
@@ -1769,8 +1777,8 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>54</v>
+      <c r="A126" t="s">
+        <v>0</v>
       </c>
       <c r="B126">
         <v>35</v>
@@ -1780,8 +1788,8 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>54</v>
+      <c r="A127" t="s">
+        <v>0</v>
       </c>
       <c r="B127">
         <v>45</v>
@@ -1791,8 +1799,8 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>54</v>
+      <c r="A128" t="s">
+        <v>0</v>
       </c>
       <c r="B128">
         <v>60</v>
@@ -1802,8 +1810,8 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>54</v>
+      <c r="A129" t="s">
+        <v>0</v>
       </c>
       <c r="B129">
         <v>80</v>
@@ -1813,8 +1821,8 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>54</v>
+      <c r="A130" t="s">
+        <v>0</v>
       </c>
       <c r="B130">
         <v>80</v>
